--- a/document/项目管理/项目工作进度计划-曹俊燚.xlsx
+++ b/document/项目管理/项目工作进度计划-曹俊燚.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCC8D8E-F59E-DF4D-A621-A4A336E9DBB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA70C7E1-D4F3-5948-A1D8-883E22294F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
   <si>
     <t>项目规划器</t>
   </si>
@@ -779,6 +779,22 @@
   </si>
   <si>
     <t>08.31-文件服务模块开发</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01-测试方案</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01-加密解密模块</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02-智能合约、区块链搭建设计</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29-前端界面开发</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1958,7 +1974,7 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2149,98 +2165,101 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2277,6 +2296,24 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2286,26 +2323,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2810,17 +2829,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2852,82 +2871,82 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="82" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="79"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="92"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="79"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="92"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="93"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="84"/>
     </row>
     <row r="7" spans="1:9" ht="16" thickBot="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="88" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -2936,113 +2955,113 @@
       <c r="C8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="79" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="91" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
-      <c r="A9" s="71"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="63"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="71"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="71"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="71"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="71"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:9" ht="120">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="90" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="90" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="92" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -3053,17 +3072,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="63" t="s">
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="64"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="17" t="s">
         <v>63</v>
       </c>
@@ -3072,15 +3091,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="17" t="s">
         <v>66</v>
       </c>
@@ -3089,20 +3108,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60">
-      <c r="A16" s="64"/>
-      <c r="B16" s="63" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="92" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64" t="s">
+      <c r="G16" s="90"/>
+      <c r="H16" s="90" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -3110,53 +3129,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90">
-      <c r="A18" s="64"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="64"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="64"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="17" t="s">
         <v>77</v>
       </c>
@@ -3165,19 +3184,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="64"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="17" t="s">
         <v>33</v>
       </c>
@@ -3186,17 +3205,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="17" t="s">
@@ -3208,19 +3227,19 @@
       <c r="C22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="90" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="90" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="17" t="s">
@@ -3234,32 +3253,32 @@
       <c r="C23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="90" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3268,17 +3287,17 @@
       <c r="C25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="90" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64" t="s">
+      <c r="G25" s="90"/>
+      <c r="H25" s="90" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="17" t="s">
@@ -3286,65 +3305,65 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="64"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64" t="s">
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="63" t="s">
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="92" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="90"/>
+      <c r="B27" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="63"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="63"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="90" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -3353,61 +3372,59 @@
       <c r="C30" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="90" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="64"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="I30" s="90" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="64"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="64"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="64"/>
+      <c r="I31" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="F26:F28"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:A20"/>
@@ -3423,21 +3440,23 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3588,10 +3607,10 @@
       <c r="V2" s="34"/>
     </row>
     <row r="3" spans="1:44" ht="14">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="99" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="36"/>
@@ -3603,8 +3622,8 @@
       </c>
     </row>
     <row r="4" spans="1:44" ht="14">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="37"/>
       <c r="I4" s="32"/>
       <c r="P4" s="32"/>
@@ -3614,8 +3633,8 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="14">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="38"/>
       <c r="I5" s="32"/>
       <c r="P5" s="32"/>
@@ -3625,8 +3644,8 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="60"/>
       <c r="I6" s="32"/>
       <c r="P6" s="32"/>
@@ -3636,8 +3655,8 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="15" thickBot="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="59"/>
       <c r="I7" s="32"/>
       <c r="P7" s="32"/>
@@ -3655,10 +3674,10 @@
       <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:44" ht="14">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="104" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="36"/>
@@ -3667,24 +3686,24 @@
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:44" ht="14">
-      <c r="A10" s="96"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="I10" s="32"/>
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:44" ht="15" thickBot="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="I11" s="32"/>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:44" ht="14">
-      <c r="A12" s="96"/>
-      <c r="B12" s="94" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="95" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="36"/>
@@ -3694,8 +3713,8 @@
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:44" ht="14">
-      <c r="A13" s="96"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -3703,8 +3722,8 @@
       <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:44" ht="14">
-      <c r="A14" s="96"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -3712,8 +3731,8 @@
       <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:44" ht="15" thickBot="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -3721,7 +3740,7 @@
       <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:44" s="44" customFormat="1">
-      <c r="A16" s="101"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="61" t="s">
         <v>128</v>
       </c>
@@ -3769,7 +3788,7 @@
       <c r="AR16" s="24"/>
     </row>
     <row r="17" spans="1:78" s="45" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="102"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="43" t="s">
         <v>129</v>
       </c>
@@ -3865,10 +3884,10 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:78" ht="14">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="104" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="60"/>
@@ -3878,24 +3897,24 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:78" ht="14">
-      <c r="A20" s="96"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="105"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="I20" s="32"/>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:78" ht="14">
-      <c r="A21" s="96"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="105"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="I21" s="32"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:78" ht="14">
-      <c r="A22" s="96"/>
-      <c r="B22" s="105" t="s">
+      <c r="A22" s="97"/>
+      <c r="B22" s="106" t="s">
         <v>133</v>
       </c>
       <c r="F22" s="60"/>
@@ -3903,15 +3922,15 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:78" ht="14">
-      <c r="A23" s="96"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="106"/>
       <c r="F23" s="38"/>
       <c r="I23" s="32"/>
       <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:78" ht="14">
-      <c r="A24" s="96"/>
-      <c r="B24" s="105" t="s">
+      <c r="A24" s="97"/>
+      <c r="B24" s="106" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="36"/>
@@ -3925,8 +3944,8 @@
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:78" ht="14">
-      <c r="A25" s="96"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="106"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
@@ -3938,8 +3957,8 @@
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:78" ht="14">
-      <c r="A26" s="96"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="106"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="48"/>
@@ -3951,8 +3970,8 @@
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:78" ht="14">
-      <c r="A27" s="96"/>
-      <c r="B27" s="105"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="106"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49"/>
@@ -3964,8 +3983,8 @@
       <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:78" ht="14">
-      <c r="A28" s="96"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="106"/>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -3977,7 +3996,7 @@
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:78" s="44" customFormat="1" ht="17">
-      <c r="A29" s="101"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="50" t="s">
         <v>135</v>
       </c>
@@ -3988,7 +4007,7 @@
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:78" ht="17" thickBot="1">
-      <c r="A30" s="95"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="52" t="s">
         <v>137</v>
       </c>
@@ -4013,7 +4032,7 @@
       <c r="Q31" s="42"/>
     </row>
     <row r="32" spans="1:78">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="95" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="54" t="s">
@@ -4024,7 +4043,7 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="95"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="52" t="s">
         <v>141</v>
       </c>
@@ -4053,7 +4072,7 @@
       <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="95" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="54" t="s">
@@ -4063,7 +4082,7 @@
       <c r="P35" s="59"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="96"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="55" t="s">
         <v>145</v>
       </c>
@@ -4071,7 +4090,7 @@
       <c r="P36" s="60"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="95"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="52" t="s">
         <v>146</v>
       </c>
@@ -4094,7 +4113,7 @@
       <c r="Q38" s="42"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="95" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="54" t="s">
@@ -4109,7 +4128,7 @@
       <c r="U39" s="60"/>
     </row>
     <row r="40" spans="1:21" s="57" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="97"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="56" t="s">
         <v>150</v>
       </c>
@@ -4146,10 +4165,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO14"/>
+  <dimension ref="B1:BO17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="107" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -4158,7 +4177,10 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="16" customWidth="1"/>
-    <col min="8" max="27" width="3.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16" width="3.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" style="1" customWidth="1"/>
+    <col min="19" max="27" width="3.33203125" style="1" customWidth="1"/>
     <col min="28" max="67" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4173,80 +4195,80 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="110"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="106" t="s">
+      <c r="P2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="110"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="116"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="106" t="s">
+      <c r="V2" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="110"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="116"/>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="106" t="s">
+      <c r="AA2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="110"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="116"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="106" t="s">
+      <c r="AH2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="114"/>
+      <c r="AN2" s="114"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:67" s="6" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="115" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -4273,12 +4295,12 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="114"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -5022,102 +5044,102 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C12" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G12" s="20">
-        <v>0.85</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="63"/>
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="63"/>
+      <c r="AU12" s="63"/>
+      <c r="AV12" s="63"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="63"/>
+      <c r="AY12" s="63"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
+      <c r="BF12" s="63"/>
+      <c r="BG12" s="63"/>
+      <c r="BH12" s="63"/>
+      <c r="BI12" s="63"/>
+      <c r="BJ12" s="63"/>
+      <c r="BK12" s="63"/>
+      <c r="BL12" s="63"/>
+      <c r="BM12" s="63"/>
+      <c r="BN12" s="63"/>
+      <c r="BO12" s="63"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
       </c>
       <c r="E13" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="19">
+        <v>4</v>
+      </c>
+      <c r="G13" s="20">
         <v>1</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.2</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -5181,12 +5203,24 @@
       <c r="BO13" s="17"/>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="19">
+        <v>6</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <v>8</v>
+      </c>
+      <c r="F14" s="19">
+        <v>6</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.7</v>
+      </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -5248,23 +5282,263 @@
       <c r="BN14" s="17"/>
       <c r="BO14" s="17"/>
     </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1">
+      <c r="B15" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="19">
+        <v>7</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>7</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="17"/>
+      <c r="BD15" s="17"/>
+      <c r="BE15" s="17"/>
+      <c r="BF15" s="17"/>
+      <c r="BG15" s="17"/>
+      <c r="BH15" s="17"/>
+      <c r="BI15" s="17"/>
+      <c r="BJ15" s="17"/>
+      <c r="BK15" s="17"/>
+      <c r="BL15" s="17"/>
+      <c r="BM15" s="17"/>
+      <c r="BN15" s="17"/>
+      <c r="BO15" s="17"/>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1">
+      <c r="B16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="19">
+        <v>7</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>7</v>
+      </c>
+      <c r="F16" s="19">
+        <v>6</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="63"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
+      <c r="BG16" s="63"/>
+      <c r="BH16" s="63"/>
+      <c r="BI16" s="63"/>
+      <c r="BJ16" s="63"/>
+      <c r="BK16" s="63"/>
+      <c r="BL16" s="63"/>
+      <c r="BM16" s="63"/>
+      <c r="BN16" s="63"/>
+      <c r="BO16" s="63"/>
+    </row>
+    <row r="17" spans="2:67" ht="30" customHeight="1">
+      <c r="B17" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="19">
+        <v>8</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>8</v>
+      </c>
+      <c r="F17" s="19">
+        <v>6</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63"/>
+      <c r="AY17" s="63"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
+      <c r="BC17" s="63"/>
+      <c r="BD17" s="63"/>
+      <c r="BE17" s="63"/>
+      <c r="BF17" s="63"/>
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="63"/>
+      <c r="BI17" s="63"/>
+      <c r="BJ17" s="63"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="63"/>
+      <c r="BM17" s="63"/>
+      <c r="BN17" s="63"/>
+      <c r="BO17" s="63"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="AA2:AF2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="H5:BO14">
+  <conditionalFormatting sqref="H5:BO17">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -5290,7 +5564,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:BO15">
+  <conditionalFormatting sqref="B18:BO18">
     <cfRule type="expression" dxfId="1" priority="26">
       <formula>TRUE</formula>
     </cfRule>

--- a/document/项目管理/项目工作进度计划-曹俊燚.xlsx
+++ b/document/项目管理/项目工作进度计划-曹俊燚.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA70C7E1-D4F3-5948-A1D8-883E22294F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE952958-3BC9-DE4F-B5F0-3F65F8E0DD06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
   <si>
     <t>项目规划器</t>
   </si>
@@ -795,6 +795,10 @@
   </si>
   <si>
     <t>08.29-前端界面开发</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01-测试计划</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1974,7 +1978,7 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2167,6 +2171,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2212,12 +2255,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2230,36 +2267,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2296,6 +2303,21 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2310,21 +2332,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2829,17 +2836,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2871,82 +2878,82 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="93" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="68"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="83"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="68"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="83"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="84"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="95"/>
     </row>
     <row r="7" spans="1:9" ht="16" thickBot="1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="72" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -2955,113 +2962,113 @@
       <c r="C8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="74" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="76" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
-      <c r="A9" s="89"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="92"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="89"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="89"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="89"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="89"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="120">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="66" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="66" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="65" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -3072,17 +3079,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="92" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="90"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="17" t="s">
         <v>63</v>
       </c>
@@ -3091,15 +3098,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="90"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="17" t="s">
         <v>66</v>
       </c>
@@ -3108,20 +3115,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60">
-      <c r="A16" s="90"/>
-      <c r="B16" s="92" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="65" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -3129,53 +3136,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="90"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90">
-      <c r="A18" s="90"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
       <c r="I18" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="90"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="90"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="17" t="s">
         <v>77</v>
       </c>
@@ -3184,19 +3191,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="90"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="90"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="17" t="s">
         <v>33</v>
       </c>
@@ -3205,17 +3212,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="17" t="s">
@@ -3227,19 +3234,19 @@
       <c r="C22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="66" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="90" t="s">
+      <c r="G22" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="90" t="s">
+      <c r="H22" s="66" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="17" t="s">
@@ -3253,32 +3260,32 @@
       <c r="C23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="66" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3287,17 +3294,17 @@
       <c r="C25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="66" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90" t="s">
+      <c r="G25" s="66"/>
+      <c r="H25" s="66" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="17" t="s">
@@ -3305,65 +3312,65 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="90"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90" t="s">
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="92" t="s">
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="92"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="92"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="66" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -3372,44 +3379,76 @@
       <c r="C30" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="E30" s="66" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="90"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="90" t="s">
+      <c r="I30" s="66" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="90"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="90"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="90"/>
+      <c r="I31" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -3425,38 +3464,6 @@
     <mergeCell ref="G25:G28"/>
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="F26:F28"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3607,10 +3614,10 @@
       <c r="V2" s="34"/>
     </row>
     <row r="3" spans="1:44" ht="14">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="100" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="36"/>
@@ -3622,8 +3629,8 @@
       </c>
     </row>
     <row r="4" spans="1:44" ht="14">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="37"/>
       <c r="I4" s="32"/>
       <c r="P4" s="32"/>
@@ -3633,8 +3640,8 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="14">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="38"/>
       <c r="I5" s="32"/>
       <c r="P5" s="32"/>
@@ -3644,8 +3651,8 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="60"/>
       <c r="I6" s="32"/>
       <c r="P6" s="32"/>
@@ -3655,8 +3662,8 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="15" thickBot="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="59"/>
       <c r="I7" s="32"/>
       <c r="P7" s="32"/>
@@ -3674,10 +3681,10 @@
       <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:44" ht="14">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="105" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="36"/>
@@ -3686,24 +3693,24 @@
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:44" ht="14">
-      <c r="A10" s="97"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="I10" s="32"/>
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:44" ht="15" thickBot="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="105"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="I11" s="32"/>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:44" ht="14">
-      <c r="A12" s="97"/>
-      <c r="B12" s="95" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="96" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="36"/>
@@ -3713,8 +3720,8 @@
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:44" ht="14">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -3722,8 +3729,8 @@
       <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:44" ht="14">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -3731,8 +3738,8 @@
       <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:44" ht="15" thickBot="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -3740,7 +3747,7 @@
       <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:44" s="44" customFormat="1">
-      <c r="A16" s="102"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="61" t="s">
         <v>128</v>
       </c>
@@ -3788,7 +3795,7 @@
       <c r="AR16" s="24"/>
     </row>
     <row r="17" spans="1:78" s="45" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="103"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="43" t="s">
         <v>129</v>
       </c>
@@ -3884,10 +3891,10 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:78" ht="14">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="105" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="60"/>
@@ -3897,24 +3904,24 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:78" ht="14">
-      <c r="A20" s="97"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="106"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="I20" s="32"/>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:78" ht="14">
-      <c r="A21" s="97"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="106"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="I21" s="32"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:78" ht="14">
-      <c r="A22" s="97"/>
-      <c r="B22" s="106" t="s">
+      <c r="A22" s="98"/>
+      <c r="B22" s="107" t="s">
         <v>133</v>
       </c>
       <c r="F22" s="60"/>
@@ -3922,15 +3929,15 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:78" ht="14">
-      <c r="A23" s="97"/>
-      <c r="B23" s="106"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="107"/>
       <c r="F23" s="38"/>
       <c r="I23" s="32"/>
       <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:78" ht="14">
-      <c r="A24" s="97"/>
-      <c r="B24" s="106" t="s">
+      <c r="A24" s="98"/>
+      <c r="B24" s="107" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="36"/>
@@ -3944,8 +3951,8 @@
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:78" ht="14">
-      <c r="A25" s="97"/>
-      <c r="B25" s="106"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="107"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
@@ -3957,8 +3964,8 @@
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:78" ht="14">
-      <c r="A26" s="97"/>
-      <c r="B26" s="106"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="107"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="48"/>
@@ -3970,8 +3977,8 @@
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:78" ht="14">
-      <c r="A27" s="97"/>
-      <c r="B27" s="106"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="107"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49"/>
@@ -3983,8 +3990,8 @@
       <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:78" ht="14">
-      <c r="A28" s="97"/>
-      <c r="B28" s="106"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="107"/>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -3996,7 +4003,7 @@
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:78" s="44" customFormat="1" ht="17">
-      <c r="A29" s="102"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="50" t="s">
         <v>135</v>
       </c>
@@ -4007,7 +4014,7 @@
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:78" ht="17" thickBot="1">
-      <c r="A30" s="96"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="52" t="s">
         <v>137</v>
       </c>
@@ -4032,7 +4039,7 @@
       <c r="Q31" s="42"/>
     </row>
     <row r="32" spans="1:78">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="96" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="54" t="s">
@@ -4043,7 +4050,7 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="96"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="52" t="s">
         <v>141</v>
       </c>
@@ -4072,7 +4079,7 @@
       <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="96" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="54" t="s">
@@ -4082,7 +4089,7 @@
       <c r="P35" s="59"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="97"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="55" t="s">
         <v>145</v>
       </c>
@@ -4090,7 +4097,7 @@
       <c r="P36" s="60"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="96"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>146</v>
       </c>
@@ -4113,7 +4120,7 @@
       <c r="Q38" s="42"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="96" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="54" t="s">
@@ -4128,7 +4135,7 @@
       <c r="U39" s="60"/>
     </row>
     <row r="40" spans="1:21" s="57" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="98"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="56" t="s">
         <v>150</v>
       </c>
@@ -4165,10 +4172,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO17"/>
+  <dimension ref="B1:BO18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="107" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -4195,13 +4202,13 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
@@ -4209,66 +4216,66 @@
         <v>11</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="116"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="112"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="113" t="s">
+      <c r="P2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="116"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="112"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="113" t="s">
+      <c r="V2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="116"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="112"/>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="113" t="s">
+      <c r="AA2" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="116"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="112"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="113" t="s">
+      <c r="AH2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-      <c r="AM2" s="114"/>
-      <c r="AN2" s="114"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
+      <c r="AM2" s="109"/>
+      <c r="AN2" s="109"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:67" s="6" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="110" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -4295,12 +4302,12 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="110"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -5284,7 +5291,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1">
       <c r="B15" s="18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C15" s="19">
         <v>7</v>
@@ -5364,102 +5371,102 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="19">
         <v>7</v>
       </c>
       <c r="D16" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="19">
         <v>7</v>
       </c>
       <c r="F16" s="19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="63"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="63"/>
-      <c r="BC16" s="63"/>
-      <c r="BD16" s="63"/>
-      <c r="BE16" s="63"/>
-      <c r="BF16" s="63"/>
-      <c r="BG16" s="63"/>
-      <c r="BH16" s="63"/>
-      <c r="BI16" s="63"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="63"/>
-      <c r="BM16" s="63"/>
-      <c r="BN16" s="63"/>
-      <c r="BO16" s="63"/>
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="64"/>
+      <c r="AU16" s="64"/>
+      <c r="AV16" s="64"/>
+      <c r="AW16" s="64"/>
+      <c r="AX16" s="64"/>
+      <c r="AY16" s="64"/>
+      <c r="AZ16" s="64"/>
+      <c r="BA16" s="64"/>
+      <c r="BB16" s="64"/>
+      <c r="BC16" s="64"/>
+      <c r="BD16" s="64"/>
+      <c r="BE16" s="64"/>
+      <c r="BF16" s="64"/>
+      <c r="BG16" s="64"/>
+      <c r="BH16" s="64"/>
+      <c r="BI16" s="64"/>
+      <c r="BJ16" s="64"/>
+      <c r="BK16" s="64"/>
+      <c r="BL16" s="64"/>
+      <c r="BM16" s="64"/>
+      <c r="BN16" s="64"/>
+      <c r="BO16" s="64"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1">
       <c r="B17" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="19">
         <v>6</v>
       </c>
       <c r="G17" s="20">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -5522,23 +5529,103 @@
       <c r="BN17" s="63"/>
       <c r="BO17" s="63"/>
     </row>
+    <row r="18" spans="2:67" ht="30" customHeight="1">
+      <c r="B18" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="19">
+        <v>8</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
+        <v>8</v>
+      </c>
+      <c r="F18" s="19">
+        <v>6</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
+      <c r="BC18" s="63"/>
+      <c r="BD18" s="63"/>
+      <c r="BE18" s="63"/>
+      <c r="BF18" s="63"/>
+      <c r="BG18" s="63"/>
+      <c r="BH18" s="63"/>
+      <c r="BI18" s="63"/>
+      <c r="BJ18" s="63"/>
+      <c r="BK18" s="63"/>
+      <c r="BL18" s="63"/>
+      <c r="BM18" s="63"/>
+      <c r="BN18" s="63"/>
+      <c r="BO18" s="63"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="H5:BO17">
+  <conditionalFormatting sqref="H5:BO18">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -5564,7 +5651,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:BO18">
+  <conditionalFormatting sqref="B19:BO19">
     <cfRule type="expression" dxfId="1" priority="26">
       <formula>TRUE</formula>
     </cfRule>

--- a/document/项目管理/项目工作进度计划-曹俊燚.xlsx
+++ b/document/项目管理/项目工作进度计划-曹俊燚.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE952958-3BC9-DE4F-B5F0-3F65F8E0DD06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B678482-ED42-4846-965C-AC10B9D8E505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4175,7 +4175,7 @@
   <dimension ref="B1:BO18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="107" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -4186,8 +4186,9 @@
     <col min="7" max="7" width="15.6640625" style="16" customWidth="1"/>
     <col min="8" max="16" width="3.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" style="1" customWidth="1"/>
-    <col min="19" max="27" width="3.33203125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="4.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.1640625" style="1" customWidth="1"/>
+    <col min="21" max="27" width="3.33203125" style="1" customWidth="1"/>
     <col min="28" max="67" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/document/项目管理/项目工作进度计划-曹俊燚.xlsx
+++ b/document/项目管理/项目工作进度计划-曹俊燚.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B678482-ED42-4846-965C-AC10B9D8E505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB75F2D-38BF-DE4D-8F45-B71BD2946090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="173">
   <si>
     <t>项目规划器</t>
   </si>
@@ -799,6 +799,30 @@
   </si>
   <si>
     <t>09.01-测试计划</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04-前端、后端对接</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02-IPFS集群搭建</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02-IPFS上传、下载模块编码</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.03-用户模块测试进行</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.07-智能合约编写部署</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.08-系统初步上线部署</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1978,7 +2002,7 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2175,98 +2199,101 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2303,6 +2330,24 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2312,26 +2357,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2836,17 +2863,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2878,82 +2905,82 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="84" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="81"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="94"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="81"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="94"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="95"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="16" thickBot="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="90" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -2962,113 +2989,113 @@
       <c r="C8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="81" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="93" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
-      <c r="A9" s="73"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="65"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="73"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="73"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="73"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="73"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:9" ht="120">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="92" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="92" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="94" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -3079,17 +3106,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="65" t="s">
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="17" t="s">
         <v>63</v>
       </c>
@@ -3098,15 +3125,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="17" t="s">
         <v>66</v>
       </c>
@@ -3115,20 +3142,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60">
-      <c r="A16" s="66"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="94" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66" t="s">
+      <c r="G16" s="92"/>
+      <c r="H16" s="92" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -3136,53 +3163,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90">
-      <c r="A18" s="66"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
       <c r="I18" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="66"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="66"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="17" t="s">
         <v>77</v>
       </c>
@@ -3191,19 +3218,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="66"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="66"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="17" t="s">
         <v>33</v>
       </c>
@@ -3212,17 +3239,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="17" t="s">
@@ -3234,19 +3261,19 @@
       <c r="C22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="92" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="92" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="17" t="s">
@@ -3260,32 +3287,32 @@
       <c r="C23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
       <c r="I23" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="92" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3294,17 +3321,17 @@
       <c r="C25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="92" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66" t="s">
+      <c r="G25" s="92"/>
+      <c r="H25" s="92" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="17" t="s">
@@ -3312,65 +3339,65 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="66"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66" t="s">
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="65" t="s">
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="94" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="65"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="65"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="94"/>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="92" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -3379,61 +3406,59 @@
       <c r="C30" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="92" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="66"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="92" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="66"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="66"/>
+      <c r="G31" s="92"/>
       <c r="H31" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="66"/>
+      <c r="I31" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="F26:F28"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:A20"/>
@@ -3449,21 +3474,23 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3614,10 +3641,10 @@
       <c r="V2" s="34"/>
     </row>
     <row r="3" spans="1:44" ht="14">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="101" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="36"/>
@@ -3629,8 +3656,8 @@
       </c>
     </row>
     <row r="4" spans="1:44" ht="14">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="37"/>
       <c r="I4" s="32"/>
       <c r="P4" s="32"/>
@@ -3640,8 +3667,8 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="14">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="38"/>
       <c r="I5" s="32"/>
       <c r="P5" s="32"/>
@@ -3651,8 +3678,8 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="60"/>
       <c r="I6" s="32"/>
       <c r="P6" s="32"/>
@@ -3662,8 +3689,8 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="15" thickBot="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="59"/>
       <c r="I7" s="32"/>
       <c r="P7" s="32"/>
@@ -3681,10 +3708,10 @@
       <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:44" ht="14">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="106" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="36"/>
@@ -3693,24 +3720,24 @@
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:44" ht="14">
-      <c r="A10" s="98"/>
-      <c r="B10" s="106"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="I10" s="32"/>
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:44" ht="15" thickBot="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="106"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="I11" s="32"/>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:44" ht="14">
-      <c r="A12" s="98"/>
-      <c r="B12" s="96" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="97" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="36"/>
@@ -3720,8 +3747,8 @@
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:44" ht="14">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -3729,8 +3756,8 @@
       <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:44" ht="14">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -3738,8 +3765,8 @@
       <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:44" ht="15" thickBot="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -3747,7 +3774,7 @@
       <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:44" s="44" customFormat="1">
-      <c r="A16" s="103"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="61" t="s">
         <v>128</v>
       </c>
@@ -3795,7 +3822,7 @@
       <c r="AR16" s="24"/>
     </row>
     <row r="17" spans="1:78" s="45" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="104"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="43" t="s">
         <v>129</v>
       </c>
@@ -3891,10 +3918,10 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:78" ht="14">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="106" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="60"/>
@@ -3904,24 +3931,24 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:78" ht="14">
-      <c r="A20" s="98"/>
-      <c r="B20" s="106"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="107"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="I20" s="32"/>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:78" ht="14">
-      <c r="A21" s="98"/>
-      <c r="B21" s="106"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="107"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="I21" s="32"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:78" ht="14">
-      <c r="A22" s="98"/>
-      <c r="B22" s="107" t="s">
+      <c r="A22" s="99"/>
+      <c r="B22" s="108" t="s">
         <v>133</v>
       </c>
       <c r="F22" s="60"/>
@@ -3929,15 +3956,15 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:78" ht="14">
-      <c r="A23" s="98"/>
-      <c r="B23" s="107"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="108"/>
       <c r="F23" s="38"/>
       <c r="I23" s="32"/>
       <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:78" ht="14">
-      <c r="A24" s="98"/>
-      <c r="B24" s="107" t="s">
+      <c r="A24" s="99"/>
+      <c r="B24" s="108" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="36"/>
@@ -3951,8 +3978,8 @@
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:78" ht="14">
-      <c r="A25" s="98"/>
-      <c r="B25" s="107"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="108"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
@@ -3964,8 +3991,8 @@
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:78" ht="14">
-      <c r="A26" s="98"/>
-      <c r="B26" s="107"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="108"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="48"/>
@@ -3977,8 +4004,8 @@
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:78" ht="14">
-      <c r="A27" s="98"/>
-      <c r="B27" s="107"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="108"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49"/>
@@ -3990,8 +4017,8 @@
       <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:78" ht="14">
-      <c r="A28" s="98"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="108"/>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -4003,7 +4030,7 @@
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:78" s="44" customFormat="1" ht="17">
-      <c r="A29" s="103"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="50" t="s">
         <v>135</v>
       </c>
@@ -4014,7 +4041,7 @@
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:78" ht="17" thickBot="1">
-      <c r="A30" s="97"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="52" t="s">
         <v>137</v>
       </c>
@@ -4039,7 +4066,7 @@
       <c r="Q31" s="42"/>
     </row>
     <row r="32" spans="1:78">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="97" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="54" t="s">
@@ -4050,7 +4077,7 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="97"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="52" t="s">
         <v>141</v>
       </c>
@@ -4079,7 +4106,7 @@
       <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="97" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="54" t="s">
@@ -4089,7 +4116,7 @@
       <c r="P35" s="59"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="98"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="55" t="s">
         <v>145</v>
       </c>
@@ -4097,7 +4124,7 @@
       <c r="P36" s="60"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="97"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="52" t="s">
         <v>146</v>
       </c>
@@ -4120,7 +4147,7 @@
       <c r="Q38" s="42"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="97" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="54" t="s">
@@ -4135,7 +4162,7 @@
       <c r="U39" s="60"/>
     </row>
     <row r="40" spans="1:21" s="57" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="99"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="56" t="s">
         <v>150</v>
       </c>
@@ -4172,10 +4199,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO18"/>
+  <dimension ref="B1:BO24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="107" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="118" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -4188,7 +4215,10 @@
     <col min="17" max="17" width="4.1640625" style="1" customWidth="1"/>
     <col min="18" max="19" width="4.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.1640625" style="1" customWidth="1"/>
-    <col min="21" max="27" width="3.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" style="1" customWidth="1"/>
+    <col min="24" max="27" width="3.33203125" style="1" customWidth="1"/>
     <col min="28" max="67" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4203,80 +4233,80 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9">
+        <v>15</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="112"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="118"/>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="108" t="s">
+      <c r="AA2" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="112"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="118"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="108" t="s">
+      <c r="AH2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="109"/>
-      <c r="AM2" s="109"/>
-      <c r="AN2" s="109"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:67" s="6" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="117" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -4303,12 +4333,12 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="116"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -4907,7 +4937,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="20">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -5067,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="20">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -5227,7 +5257,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="20">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -5387,7 +5417,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="20">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H16" s="64"/>
       <c r="I16" s="64"/>
@@ -5467,7 +5497,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -5547,7 +5577,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="20">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
@@ -5610,23 +5640,503 @@
       <c r="BN18" s="63"/>
       <c r="BO18" s="63"/>
     </row>
+    <row r="19" spans="2:67" ht="30" customHeight="1">
+      <c r="B19" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="19">
+        <v>8</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="65"/>
+    </row>
+    <row r="20" spans="2:67" ht="30" customHeight="1">
+      <c r="B20" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="19">
+        <v>8</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19">
+        <v>8</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="65"/>
+      <c r="BO20" s="65"/>
+    </row>
+    <row r="21" spans="2:67" ht="30" customHeight="1">
+      <c r="B21" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="19">
+        <v>9</v>
+      </c>
+      <c r="D21" s="19">
+        <v>7</v>
+      </c>
+      <c r="E21" s="19">
+        <v>9</v>
+      </c>
+      <c r="F21" s="19">
+        <v>7</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="65"/>
+      <c r="BH21" s="65"/>
+      <c r="BI21" s="65"/>
+      <c r="BJ21" s="65"/>
+      <c r="BK21" s="65"/>
+      <c r="BL21" s="65"/>
+      <c r="BM21" s="65"/>
+      <c r="BN21" s="65"/>
+      <c r="BO21" s="65"/>
+    </row>
+    <row r="22" spans="2:67" ht="30" customHeight="1">
+      <c r="B22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="19">
+        <v>10</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3</v>
+      </c>
+      <c r="E22" s="19">
+        <v>10</v>
+      </c>
+      <c r="F22" s="19">
+        <v>6</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65"/>
+      <c r="BI22" s="65"/>
+      <c r="BJ22" s="65"/>
+      <c r="BK22" s="65"/>
+      <c r="BL22" s="65"/>
+      <c r="BM22" s="65"/>
+      <c r="BN22" s="65"/>
+      <c r="BO22" s="65"/>
+    </row>
+    <row r="23" spans="2:67" ht="30" customHeight="1">
+      <c r="B23" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="19">
+        <v>13</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>13</v>
+      </c>
+      <c r="F23" s="19">
+        <v>4</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65"/>
+      <c r="BC23" s="65"/>
+      <c r="BD23" s="65"/>
+      <c r="BE23" s="65"/>
+      <c r="BF23" s="65"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65"/>
+      <c r="BI23" s="65"/>
+      <c r="BJ23" s="65"/>
+      <c r="BK23" s="65"/>
+      <c r="BL23" s="65"/>
+      <c r="BM23" s="65"/>
+      <c r="BN23" s="65"/>
+      <c r="BO23" s="65"/>
+    </row>
+    <row r="24" spans="2:67" ht="30" customHeight="1">
+      <c r="B24" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="19">
+        <v>14</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19">
+        <v>14</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="65"/>
+      <c r="AV24" s="65"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="65"/>
+      <c r="BC24" s="65"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="65"/>
+      <c r="BJ24" s="65"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
+      <c r="BM24" s="65"/>
+      <c r="BN24" s="65"/>
+      <c r="BO24" s="65"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="AA2:AF2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="H5:BO18">
+  <conditionalFormatting sqref="H5:BO24">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -5652,7 +6162,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:BO19">
+  <conditionalFormatting sqref="B25:BO25">
     <cfRule type="expression" dxfId="1" priority="26">
       <formula>TRUE</formula>
     </cfRule>

--- a/document/项目管理/项目工作进度计划-曹俊燚.xlsx
+++ b/document/项目管理/项目工作进度计划-曹俊燚.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB75F2D-38BF-DE4D-8F45-B71BD2946090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E857D489-13FB-BD4B-A755-EB10FCE5FC2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="4" r:id="rId1"/>
-    <sheet name="工作计划" sheetId="3" r:id="rId2"/>
+    <sheet name="工作计划" sheetId="6" r:id="rId2"/>
     <sheet name="进度甘特表" sheetId="5" r:id="rId3"/>
     <sheet name="项目规划表（执行情况）" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
   <si>
     <t>项目规划器</t>
   </si>
@@ -193,61 +193,254 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>Mon.</t>
+  </si>
+  <si>
+    <t>Tue.</t>
+  </si>
+  <si>
+    <t>Wedn.</t>
+  </si>
+  <si>
+    <t>Thurs.</t>
+  </si>
+  <si>
+    <t>Fri.</t>
+  </si>
+  <si>
+    <t>Sat.</t>
+  </si>
+  <si>
+    <t>Sun.</t>
+  </si>
+  <si>
+    <t>项目立项</t>
+  </si>
+  <si>
+    <t>项目启动</t>
+  </si>
+  <si>
+    <t>曹俊燚</t>
+  </si>
+  <si>
+    <t>卢茜君</t>
+  </si>
+  <si>
+    <t>金晨</t>
+  </si>
+  <si>
+    <t>侯添久</t>
+  </si>
+  <si>
+    <t>赵梓清</t>
+  </si>
+  <si>
+    <t>阶段文档：无</t>
+  </si>
+  <si>
+    <t>项目策划</t>
+  </si>
+  <si>
+    <t>用户管理模块需求调研分析</t>
+  </si>
+  <si>
+    <t>文件存储模块需求调研分析</t>
+  </si>
+  <si>
+    <t>需求分析评审</t>
+  </si>
+  <si>
+    <t>界面评审</t>
+  </si>
+  <si>
+    <t>阶段文档：需求规格说明书、界面UI设计图</t>
+  </si>
+  <si>
+    <t>系统开发</t>
+  </si>
+  <si>
+    <t>概要设计和评审</t>
+  </si>
+  <si>
+    <t>用户管理模块、文件上传、
+文件下载对接方案及接口制定</t>
+  </si>
+  <si>
+    <t>用户管理模块、文件存储模块、
+文件上传服务、文件下载服务
+功能编码</t>
+  </si>
+  <si>
+    <t>系统实现汇报</t>
+  </si>
+  <si>
+    <t>测试案例编写</t>
+  </si>
+  <si>
+    <t>阶段文档：概要设计说明书、对接方案、接口方案、测试案例、前端开发工作计划</t>
+  </si>
+  <si>
+    <t>测试阶段</t>
+  </si>
+  <si>
+    <t>环境准备</t>
+  </si>
+  <si>
+    <t>集成测试、接口测试</t>
+  </si>
+  <si>
+    <t>阶段文档：系统测试计划、系统测试报告</t>
+  </si>
+  <si>
+    <t>系统部署</t>
+  </si>
+  <si>
+    <t>系统界面展示汇报</t>
+  </si>
+  <si>
+    <t>准备生产环境</t>
+  </si>
+  <si>
+    <t>系统安装部署</t>
+  </si>
+  <si>
+    <t>阶段文档：系统用户手册</t>
+  </si>
+  <si>
+    <t>项目上线</t>
+  </si>
+  <si>
+    <t>系统上线试运行</t>
+  </si>
+  <si>
+    <t>最终答辩</t>
+  </si>
+  <si>
+    <t>项目开始时间 2019.08.26作为1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.26-项目启动</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.26-08.27-用户管理模块需求调研</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.26-08.29-文件存储模块需求调研</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29-需求内部评审</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29-界面评审</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.27-08.29-概要设计</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29-接口文档制定</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.30-用户管理模块开发</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.31-文件服务模块开发</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01-测试方案</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01-加密解密模块</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02-智能合约、区块链搭建设计</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29-前端界面开发</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01-测试计划</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04-前端、后端对接</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02-IPFS集群搭建</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02-IPFS上传、下载模块编码</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.03-用户模块测试进行</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.07-智能合约编写部署</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.08-系统初步上线部署</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.10-系统整体上线</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <t>工作进度计划</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段</t>
-  </si>
-  <si>
-    <t>任务名称</t>
   </si>
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>指导教师</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>客户方</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>项目团队</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>指导教师指导事项</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>客户方验收事项</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>项目团队处理事项</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目立项</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目启动</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2019.08.26</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>王勇</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>赵小林</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>项目经理、需求分析师：曹俊燚
@@ -255,17 +448,14 @@
 后端架构师、编码总负责人：侯添久
 测试经理：卢茜君
 美工总监、需求助理：赵梓清</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1、介绍项目背景
 2、介绍项目目标
 3、介绍项目建设内容</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>——</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、明确项目背景
@@ -274,118 +464,66 @@
 4、明确项目实施计划
 5、确定项目开展方式
 6、明确项目组成员及职责</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>阶段文档：项目组成员通讯录、项目计划</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目策划</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理模块需求调研分析</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.08.26-2019.08.27</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>王勇</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>需求分析师：曹俊燚
 需求助理：赵梓清
 前端开发负责人：金晨</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>指导明确需求模块划分</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、需求信息整理
 2、需求文档和界面原型整理
 3、界面UI设计</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件存储模块需求调研分析</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.08.26-2019.08.28</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>需求分析师：曹俊燚
 需求助理：赵梓清
 前端开发负责人：金晨
 后端架构师：侯添久</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求分析评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.08.29 13：20</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>需求分析师：曹俊燚</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求分析内部评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析汇报</t>
   </si>
   <si>
     <t>2019.08.30</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>美工总监：赵梓清</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面UI内部评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段文档：需求规格说明书、界面UI设计图</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统开发</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>概要设计和评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面原型汇报</t>
+  </si>
+  <si>
+    <t>界面UI评审</t>
   </si>
   <si>
     <t>2019.08.27-2019.08.28</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>系统架构师：侯添久
 后端开发人员：卢茜君
 后端开发人员：曹俊燚</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、指导系统实现参考资料
 2、指导系统设计方案
 3、编码方案评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、数据结构和系统功能设计
@@ -395,70 +533,48 @@
 5、概要设计返工
 6、概要设计正式评审
 7、概要设计返工</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.08.29 13:20</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.08.29</t>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>系统架构师：侯添久</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>概要设计汇报</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>概要设计评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.09.02 13:20</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.02</t>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数据结构、界面、功能汇报</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、数据结构评审
 2、系统功能评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理模块、文件上传、
-文件下载对接方案及接口制定</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.08.29</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>编码负责人：侯添久
 前端开发负责人：金晨</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、确定接口范围与接口内容
 2、对接方案及接口标准制定
 3、对接方案及接口标准文档评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>产品框架搭建，数据库搭建</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理模块、文件存储模块、
-文件上传服务、文件下载服务
-功能编码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.08.30-2019.09.06</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>项目经理
@@ -467,363 +583,79 @@
 测试经理
 开发人员
 测试人员</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>编码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统实现汇报</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.09</t>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>系统实现评审</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试案例编写</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.08.30-2019.09.01</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>测试经理：卢茜君
 测试人员</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、测试案例编写及评审
 2、测试案例返工</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段文档：概要设计说明书、对接方案、接口方案、测试案例、前端开发工作计划</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试阶段</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境准备</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.09.02</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>测试经理：卢茜君
 实施人员</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>准备硬件设备和操作系统</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试、接口测试</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.09.03-2019.09.07</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、对用户管理模块、文件存储、文件上传、文件下载进行
 集成测试
 2、协助接口联调测试</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段文档：系统测试计划、系统测试报告</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统部署</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统界面展示汇报</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.09.08</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>实施人员：赵梓清</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备生产环境</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>技术经理：侯添久</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1、数据库安装
 2、中间件安装
 3、系统安装调试、参数设置</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统安装部署</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段文档：系统用户手册</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目上线</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统上线试运行</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>2019.09.09-2019.09.13</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>系统试运行，进行最终答辩</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终答辩</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.12</t>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>项目经理：曹俊燚</t>
-    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>最终答辩验收</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon.</t>
-  </si>
-  <si>
-    <t>Tue.</t>
-  </si>
-  <si>
-    <t>Wedn.</t>
-  </si>
-  <si>
-    <t>Thurs.</t>
-  </si>
-  <si>
-    <t>Fri.</t>
-  </si>
-  <si>
-    <t>Sat.</t>
-  </si>
-  <si>
-    <t>Sun.</t>
-  </si>
-  <si>
-    <t>项目立项</t>
-  </si>
-  <si>
-    <t>项目启动</t>
-  </si>
-  <si>
-    <t>曹俊燚</t>
-  </si>
-  <si>
-    <t>卢茜君</t>
-  </si>
-  <si>
-    <t>金晨</t>
-  </si>
-  <si>
-    <t>侯添久</t>
-  </si>
-  <si>
-    <t>赵梓清</t>
-  </si>
-  <si>
-    <t>阶段文档：无</t>
-  </si>
-  <si>
-    <t>项目策划</t>
-  </si>
-  <si>
-    <t>用户管理模块需求调研分析</t>
-  </si>
-  <si>
-    <t>文件存储模块需求调研分析</t>
-  </si>
-  <si>
-    <t>需求分析评审</t>
-  </si>
-  <si>
-    <t>界面评审</t>
-  </si>
-  <si>
-    <t>阶段文档：需求规格说明书、界面UI设计图</t>
-  </si>
-  <si>
-    <t>系统开发</t>
-  </si>
-  <si>
-    <t>概要设计和评审</t>
-  </si>
-  <si>
-    <t>用户管理模块、文件上传、
-文件下载对接方案及接口制定</t>
-  </si>
-  <si>
-    <t>用户管理模块、文件存储模块、
-文件上传服务、文件下载服务
-功能编码</t>
-  </si>
-  <si>
-    <t>系统实现汇报</t>
-  </si>
-  <si>
-    <t>侯添久待定</t>
-  </si>
-  <si>
-    <t>测试案例编写</t>
-  </si>
-  <si>
-    <t>阶段文档：概要设计说明书、对接方案、接口方案、测试案例、前端开发工作计划</t>
-  </si>
-  <si>
-    <t>测试阶段</t>
-  </si>
-  <si>
-    <t>环境准备</t>
-  </si>
-  <si>
-    <t>集成测试、接口测试</t>
-  </si>
-  <si>
-    <t>阶段文档：系统测试计划、系统测试报告</t>
-  </si>
-  <si>
-    <t>系统部署</t>
-  </si>
-  <si>
-    <t>系统界面展示汇报</t>
-  </si>
-  <si>
-    <t>准备生产环境</t>
-  </si>
-  <si>
-    <t>系统安装部署</t>
-  </si>
-  <si>
-    <t>阶段文档：系统用户手册</t>
-  </si>
-  <si>
-    <t>项目上线</t>
-  </si>
-  <si>
-    <t>系统上线试运行</t>
-  </si>
-  <si>
-    <t>最终答辩</t>
-  </si>
-  <si>
-    <t>曹俊燚待定</t>
-  </si>
-  <si>
-    <t>项目开始时间 2019.08.26作为1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.26-项目启动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.26-08.27-用户管理模块需求调研</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.26-08.29-文件存储模块需求调研</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.29-需求内部评审</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.29-界面评审</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.27-08.29-概要设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.29-接口文档制定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.30-用户管理模块开发</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.31-文件服务模块开发</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.01-测试方案</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.01-加密解密模块</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.02-智能合约、区块链搭建设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.29-前端界面开发</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.01-测试计划</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.04-前端、后端对接</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.02-IPFS集群搭建</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.02-IPFS上传、下载模块编码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.03-用户模块测试进行</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.07-智能合约编写部署</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.08-系统初步上线部署</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.08.29 13：20</t>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,7 +669,7 @@
     <numFmt numFmtId="177" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -1034,14 +866,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1049,28 +873,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1111,18 +913,42 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="7"/>
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="50">
@@ -1407,7 +1233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1588,58 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1650,43 +1424,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1706,37 +1443,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1749,79 +1455,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1907,6 +1540,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -2002,7 +1843,7 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2078,287 +1919,278 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2843,604 +2675,608 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5208A4A-0CCA-7A4D-B17A-0F3F8A32E141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E342C95F-D6F8-4E4D-B946-02D20006828F}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="66" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="31.1640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="10.5" style="57" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="57" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" style="57" customWidth="1"/>
+    <col min="7" max="8" width="31.1640625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" thickBot="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A2" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="28" t="s">
+      <c r="C2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="92" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="69" t="s">
+      <c r="B3" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="81" t="s">
+      <c r="C3" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="103"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1">
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" thickBot="1">
+      <c r="A7" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="B8" s="57" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="70"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="85"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="70"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="85"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="86"/>
-    </row>
-    <row r="7" spans="1:9" ht="16" thickBot="1">
-      <c r="A7" s="87" t="s">
+      <c r="C8" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="114" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60">
+      <c r="A9" s="115"/>
+      <c r="B9" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-    </row>
-    <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="90" t="s">
+      <c r="C9" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="115"/>
+      <c r="B10" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="C10" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="115"/>
+      <c r="B11" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C11" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16">
+      <c r="A12" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" ht="120">
+      <c r="A13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="B13" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="C13" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60">
+      <c r="A16" s="61"/>
+      <c r="B16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="93" t="s">
+      <c r="C16" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="90">
+      <c r="A18" s="61"/>
+      <c r="B18" s="58" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="60">
-      <c r="A9" s="91"/>
-      <c r="B9" s="17" t="s">
+      <c r="C18" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="61"/>
+      <c r="B19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C19" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="61"/>
+      <c r="H19" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20" s="61"/>
+      <c r="B20" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="29" t="s">
+      <c r="C20" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="61"/>
+      <c r="H20" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16">
+      <c r="A21" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="94"/>
-    </row>
-    <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="91"/>
-      <c r="B10" s="17" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="B22" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="29" t="s">
+      <c r="C22" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60">
+      <c r="B23" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="29" t="s">
+      <c r="C23" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16">
+      <c r="A24" s="62" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="17" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="B25" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="29" t="s">
+      <c r="C25" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="61"/>
+      <c r="B26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="29" t="s">
+      <c r="C26" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="95" t="s">
+      <c r="C27" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="60"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" spans="1:9" ht="16">
+      <c r="A29" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-    </row>
-    <row r="13" spans="1:9" ht="120">
-      <c r="A13" s="92" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B30" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C30" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="61"/>
+      <c r="H30" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="61"/>
+      <c r="B31" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="92"/>
-      <c r="H14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60">
-      <c r="A16" s="92"/>
-      <c r="B16" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="92"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="90">
-      <c r="A18" s="92"/>
-      <c r="B18" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="92"/>
-      <c r="B19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="92"/>
-      <c r="B20" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16">
-      <c r="A21" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-    </row>
-    <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60">
-      <c r="B23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16">
-      <c r="A24" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="92"/>
-      <c r="B26" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="94"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="94"/>
-    </row>
-    <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="92"/>
-      <c r="H30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="92"/>
-      <c r="B31" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="92"/>
-      <c r="H31" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="92"/>
+      <c r="C31" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="61"/>
+      <c r="H31" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -3459,6 +3295,11 @@
     <mergeCell ref="G25:G28"/>
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:A20"/>
@@ -3469,17 +3310,12 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A6"/>
@@ -3494,6 +3330,7 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3501,14 +3338,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E170D-6D49-E845-ABBC-40FC65CB8307}">
   <dimension ref="A1:BZ40"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="A2" zoomScale="79" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="26" customWidth="1"/>
     <col min="3" max="8" width="9.83203125" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="9.83203125" style="24" bestFit="1" customWidth="1"/>
@@ -3517,274 +3354,274 @@
   <sheetData>
     <row r="1" spans="1:44" ht="17" thickBot="1">
       <c r="C1" s="24" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>116</v>
+        <v>23</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>116</v>
+        <v>23</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="34">
+      <c r="C2" s="29">
         <v>43703</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="29">
         <v>43704</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="29">
         <v>43705</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="29">
         <v>43706</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="29">
         <v>43707</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="29">
         <v>43708</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="30">
         <v>43709</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="29">
         <v>43710</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="29">
         <v>43711</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="29">
         <v>43712</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2" s="29">
         <v>43713</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="29">
         <v>43714</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="29">
         <v>43715</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="30">
         <v>43716</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="29">
         <v>43717</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2" s="29">
         <v>43718</v>
       </c>
-      <c r="S2" s="34">
+      <c r="S2" s="29">
         <v>43719</v>
       </c>
-      <c r="T2" s="34">
+      <c r="T2" s="29">
         <v>43720</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="29">
         <v>43721</v>
       </c>
-      <c r="V2" s="34"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:44" ht="14">
-      <c r="A3" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="I3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="V3" s="36"/>
+      <c r="A3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="I3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="V3" s="31"/>
       <c r="W3" s="24" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="14">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="37"/>
-      <c r="I4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="V4" s="37"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="32"/>
+      <c r="I4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="V4" s="32"/>
       <c r="W4" s="24" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="14">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="38"/>
-      <c r="I5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="V5" s="38"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="33"/>
+      <c r="I5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="V5" s="33"/>
       <c r="W5" s="24" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="14">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="60"/>
-      <c r="I6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="V6" s="60"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="51"/>
+      <c r="I6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="V6" s="51"/>
       <c r="W6" s="24" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="15" thickBot="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="59"/>
-      <c r="I7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="V7" s="59"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="50"/>
+      <c r="I7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="V7" s="50"/>
       <c r="W7" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" s="41" customFormat="1" ht="17" thickBot="1">
-      <c r="A8" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="I8" s="42"/>
-      <c r="P8" s="42"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="36" customFormat="1" ht="17" thickBot="1">
+      <c r="A8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="I8" s="37"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:44" ht="14">
-      <c r="A9" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="I9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="A9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="I9" s="27"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:44" ht="14">
-      <c r="A10" s="99"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="I10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="I10" s="27"/>
+      <c r="P10" s="27"/>
     </row>
     <row r="11" spans="1:44" ht="15" thickBot="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="I11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="I11" s="27"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="1:44" ht="14">
-      <c r="A12" s="99"/>
-      <c r="B12" s="97" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="I12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="I12" s="27"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:44" ht="14">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="I13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="I13" s="27"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:44" ht="14">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="I14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="I14" s="27"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="1:44" ht="15" thickBot="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="I15" s="32"/>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="1:44" s="44" customFormat="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="61" t="s">
-        <v>128</v>
+      <c r="A15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="I15" s="27"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="1:44" s="39" customFormat="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="52" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -3821,18 +3658,18 @@
       <c r="AQ16" s="24"/>
       <c r="AR16" s="24"/>
     </row>
-    <row r="17" spans="1:78" s="45" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="43" t="s">
-        <v>129</v>
+    <row r="17" spans="1:78" s="40" customFormat="1" ht="17" thickBot="1">
+      <c r="A17" s="72"/>
+      <c r="B17" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="59"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -3903,274 +3740,328 @@
       <c r="BY17" s="24"/>
       <c r="BZ17" s="24"/>
     </row>
-    <row r="18" spans="1:78" s="41" customFormat="1" ht="17" thickBot="1">
-      <c r="A18" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
+    <row r="18" spans="1:78" s="36" customFormat="1" ht="17" thickBot="1">
+      <c r="A18" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:78" ht="14">
-      <c r="A19" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="I19" s="32"/>
-      <c r="P19" s="32"/>
+      <c r="A19" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="I19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="1:78" ht="14">
-      <c r="A20" s="99"/>
-      <c r="B20" s="107"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="I20" s="32"/>
-      <c r="P20" s="32"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="74"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="I20" s="27"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" spans="1:78" ht="14">
-      <c r="A21" s="99"/>
-      <c r="B21" s="107"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="I21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="74"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="I21" s="27"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="1:78" ht="14">
-      <c r="A22" s="99"/>
-      <c r="B22" s="108" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="I22" s="32"/>
-      <c r="P22" s="32"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="I22" s="27"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="1:78" ht="14">
-      <c r="A23" s="99"/>
-      <c r="B23" s="108"/>
-      <c r="F23" s="38"/>
-      <c r="I23" s="32"/>
-      <c r="P23" s="32"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="75"/>
+      <c r="F23" s="33"/>
+      <c r="I23" s="27"/>
+      <c r="P23" s="27"/>
     </row>
     <row r="24" spans="1:78" ht="14">
-      <c r="A24" s="99"/>
-      <c r="B24" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="P24" s="32"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="P24" s="27"/>
     </row>
     <row r="25" spans="1:78" ht="14">
-      <c r="A25" s="99"/>
-      <c r="B25" s="108"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="P25" s="32"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="75"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="P25" s="27"/>
     </row>
     <row r="26" spans="1:78" ht="14">
-      <c r="A26" s="99"/>
-      <c r="B26" s="108"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="P26" s="32"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="75"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="P26" s="27"/>
     </row>
     <row r="27" spans="1:78" ht="14">
-      <c r="A27" s="99"/>
-      <c r="B27" s="108"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="P27" s="32"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="75"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="P27" s="27"/>
     </row>
     <row r="28" spans="1:78" ht="14">
-      <c r="A28" s="99"/>
-      <c r="B28" s="108"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="P28" s="32"/>
-    </row>
-    <row r="29" spans="1:78" s="44" customFormat="1" ht="17">
-      <c r="A29" s="104"/>
-      <c r="B29" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="51"/>
-      <c r="P29" s="51"/>
-    </row>
-    <row r="30" spans="1:78" ht="17" thickBot="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="49"/>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:78" s="41" customFormat="1" ht="17" thickBot="1">
-      <c r="A31" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-    </row>
-    <row r="32" spans="1:78">
-      <c r="A32" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="37"/>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:21" s="41" customFormat="1" ht="17" thickBot="1">
-      <c r="A34" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="53"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="P35" s="59"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="99"/>
-      <c r="B36" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="P36" s="60"/>
-    </row>
-    <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="98"/>
-      <c r="B37" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="32"/>
-      <c r="P37" s="60"/>
-    </row>
-    <row r="38" spans="1:21" s="41" customFormat="1" ht="17" thickBot="1">
-      <c r="A38" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="53"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
-    </row>
-    <row r="40" spans="1:21" s="57" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="100"/>
-      <c r="B40" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="I40" s="58"/>
-      <c r="P40" s="58"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="75"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="1:78" s="39" customFormat="1" ht="14" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+    </row>
+    <row r="30" spans="1:78" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="44"/>
+      <c r="P30" s="27"/>
+    </row>
+    <row r="31" spans="1:78" s="36" customFormat="1" ht="17" thickBot="1">
+      <c r="A31" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+    </row>
+    <row r="32" spans="1:78" ht="14" customHeight="1">
+      <c r="A32" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="32"/>
+      <c r="P32" s="27"/>
+    </row>
+    <row r="33" spans="1:33" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="27"/>
+    </row>
+    <row r="34" spans="1:33" s="36" customFormat="1" ht="17" thickBot="1">
+      <c r="A34" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="P35" s="50"/>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="A36" s="66"/>
+      <c r="B36" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="P36" s="51"/>
+    </row>
+    <row r="37" spans="1:33" ht="17" thickBot="1">
+      <c r="A37" s="65"/>
+      <c r="B37" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="P37" s="51"/>
+    </row>
+    <row r="38" spans="1:33" s="36" customFormat="1" ht="17" thickBot="1">
+      <c r="A38" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="46"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+    </row>
+    <row r="39" spans="1:33" ht="17" thickBot="1">
+      <c r="A39" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+    </row>
+    <row r="40" spans="1:33" s="49" customFormat="1" ht="17" thickBot="1">
+      <c r="A40" s="67"/>
+      <c r="B40" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4199,10 +4090,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO24"/>
+  <dimension ref="B1:BO25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="118" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView showGridLines="0" zoomScale="59" zoomScaleNormal="118" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -4218,7 +4109,8 @@
     <col min="21" max="21" width="4.6640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="4.5" style="1" customWidth="1"/>
     <col min="23" max="23" width="4.33203125" style="1" customWidth="1"/>
-    <col min="24" max="27" width="3.33203125" style="1" customWidth="1"/>
+    <col min="24" max="25" width="4.5" style="1" customWidth="1"/>
+    <col min="26" max="27" width="3.33203125" style="1" customWidth="1"/>
     <col min="28" max="67" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4233,80 +4125,80 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="B2" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="118"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="118"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="80"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="115" t="s">
+      <c r="V2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="118"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="80"/>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="115" t="s">
+      <c r="AA2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="118"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="80"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="115" t="s">
+      <c r="AH2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:67" s="6" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="78" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -4333,12 +4225,12 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -4522,7 +4414,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1">
       <c r="B5" s="18" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="C5" s="19">
         <v>1</v>
@@ -4602,7 +4494,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1">
       <c r="B6" s="18" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -4682,7 +4574,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="18" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
@@ -4762,7 +4654,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1">
       <c r="B8" s="18" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C8" s="19">
         <v>4</v>
@@ -4842,7 +4734,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="18" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C9" s="19">
         <v>4</v>
@@ -4922,7 +4814,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1">
       <c r="B10" s="18" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C10" s="19">
         <v>2</v>
@@ -5002,7 +4894,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1">
       <c r="B11" s="18" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="C11" s="19">
         <v>4</v>
@@ -5082,7 +4974,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="18" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C12" s="19">
         <v>4</v>
@@ -5097,72 +4989,72 @@
         <v>10</v>
       </c>
       <c r="G12" s="20">
-        <v>0.85</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="63"/>
-      <c r="AM12" s="63"/>
-      <c r="AN12" s="63"/>
-      <c r="AO12" s="63"/>
-      <c r="AP12" s="63"/>
-      <c r="AQ12" s="63"/>
-      <c r="AR12" s="63"/>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="63"/>
-      <c r="AU12" s="63"/>
-      <c r="AV12" s="63"/>
-      <c r="AW12" s="63"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="63"/>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="63"/>
-      <c r="BC12" s="63"/>
-      <c r="BD12" s="63"/>
-      <c r="BE12" s="63"/>
-      <c r="BF12" s="63"/>
-      <c r="BG12" s="63"/>
-      <c r="BH12" s="63"/>
-      <c r="BI12" s="63"/>
-      <c r="BJ12" s="63"/>
-      <c r="BK12" s="63"/>
-      <c r="BL12" s="63"/>
-      <c r="BM12" s="63"/>
-      <c r="BN12" s="63"/>
-      <c r="BO12" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="53"/>
+      <c r="BC12" s="53"/>
+      <c r="BD12" s="53"/>
+      <c r="BE12" s="53"/>
+      <c r="BF12" s="53"/>
+      <c r="BG12" s="53"/>
+      <c r="BH12" s="53"/>
+      <c r="BI12" s="53"/>
+      <c r="BJ12" s="53"/>
+      <c r="BK12" s="53"/>
+      <c r="BL12" s="53"/>
+      <c r="BM12" s="53"/>
+      <c r="BN12" s="53"/>
+      <c r="BO12" s="53"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="18" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C13" s="19">
         <v>5</v>
@@ -5242,7 +5134,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="18" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="C14" s="19">
         <v>6</v>
@@ -5257,7 +5149,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -5322,7 +5214,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1">
       <c r="B15" s="18" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C15" s="19">
         <v>7</v>
@@ -5402,7 +5294,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="18" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="C16" s="19">
         <v>7</v>
@@ -5417,72 +5309,72 @@
         <v>9</v>
       </c>
       <c r="G16" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="64"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="64"/>
-      <c r="AO16" s="64"/>
-      <c r="AP16" s="64"/>
-      <c r="AQ16" s="64"/>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="64"/>
-      <c r="AU16" s="64"/>
-      <c r="AV16" s="64"/>
-      <c r="AW16" s="64"/>
-      <c r="AX16" s="64"/>
-      <c r="AY16" s="64"/>
-      <c r="AZ16" s="64"/>
-      <c r="BA16" s="64"/>
-      <c r="BB16" s="64"/>
-      <c r="BC16" s="64"/>
-      <c r="BD16" s="64"/>
-      <c r="BE16" s="64"/>
-      <c r="BF16" s="64"/>
-      <c r="BG16" s="64"/>
-      <c r="BH16" s="64"/>
-      <c r="BI16" s="64"/>
-      <c r="BJ16" s="64"/>
-      <c r="BK16" s="64"/>
-      <c r="BL16" s="64"/>
-      <c r="BM16" s="64"/>
-      <c r="BN16" s="64"/>
-      <c r="BO16" s="64"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="54"/>
+      <c r="BB16" s="54"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="54"/>
+      <c r="BG16" s="54"/>
+      <c r="BH16" s="54"/>
+      <c r="BI16" s="54"/>
+      <c r="BJ16" s="54"/>
+      <c r="BK16" s="54"/>
+      <c r="BL16" s="54"/>
+      <c r="BM16" s="54"/>
+      <c r="BN16" s="54"/>
+      <c r="BO16" s="54"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1">
       <c r="B17" s="18" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="C17" s="19">
         <v>7</v>
@@ -5499,70 +5391,70 @@
       <c r="G17" s="20">
         <v>1</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="63"/>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="63"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63"/>
-      <c r="BC17" s="63"/>
-      <c r="BD17" s="63"/>
-      <c r="BE17" s="63"/>
-      <c r="BF17" s="63"/>
-      <c r="BG17" s="63"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="63"/>
-      <c r="BJ17" s="63"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="63"/>
-      <c r="BM17" s="63"/>
-      <c r="BN17" s="63"/>
-      <c r="BO17" s="63"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="53"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53"/>
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="53"/>
+      <c r="BH17" s="53"/>
+      <c r="BI17" s="53"/>
+      <c r="BJ17" s="53"/>
+      <c r="BK17" s="53"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="53"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1">
       <c r="B18" s="18" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="C18" s="19">
         <v>8</v>
@@ -5577,72 +5469,72 @@
         <v>6</v>
       </c>
       <c r="G18" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="63"/>
-      <c r="AS18" s="63"/>
-      <c r="AT18" s="63"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
-      <c r="BC18" s="63"/>
-      <c r="BD18" s="63"/>
-      <c r="BE18" s="63"/>
-      <c r="BF18" s="63"/>
-      <c r="BG18" s="63"/>
-      <c r="BH18" s="63"/>
-      <c r="BI18" s="63"/>
-      <c r="BJ18" s="63"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="63"/>
-      <c r="BM18" s="63"/>
-      <c r="BN18" s="63"/>
-      <c r="BO18" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="53"/>
+      <c r="AJ18" s="53"/>
+      <c r="AK18" s="53"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="53"/>
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="53"/>
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="53"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="53"/>
+      <c r="BE18" s="53"/>
+      <c r="BF18" s="53"/>
+      <c r="BG18" s="53"/>
+      <c r="BH18" s="53"/>
+      <c r="BI18" s="53"/>
+      <c r="BJ18" s="53"/>
+      <c r="BK18" s="53"/>
+      <c r="BL18" s="53"/>
+      <c r="BM18" s="53"/>
+      <c r="BN18" s="53"/>
+      <c r="BO18" s="53"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1">
       <c r="B19" s="18" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="C19" s="19">
         <v>8</v>
@@ -5659,70 +5551,70 @@
       <c r="G19" s="20">
         <v>1</v>
       </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="55"/>
+      <c r="AX19" s="55"/>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="55"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="55"/>
+      <c r="BC19" s="55"/>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="55"/>
+      <c r="BF19" s="55"/>
+      <c r="BG19" s="55"/>
+      <c r="BH19" s="55"/>
+      <c r="BI19" s="55"/>
+      <c r="BJ19" s="55"/>
+      <c r="BK19" s="55"/>
+      <c r="BL19" s="55"/>
+      <c r="BM19" s="55"/>
+      <c r="BN19" s="55"/>
+      <c r="BO19" s="55"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1">
       <c r="B20" s="18" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="C20" s="19">
         <v>8</v>
@@ -5739,70 +5631,70 @@
       <c r="G20" s="20">
         <v>1</v>
       </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="65"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="65"/>
-      <c r="BO20" s="65"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="55"/>
+      <c r="AV20" s="55"/>
+      <c r="AW20" s="55"/>
+      <c r="AX20" s="55"/>
+      <c r="AY20" s="55"/>
+      <c r="AZ20" s="55"/>
+      <c r="BA20" s="55"/>
+      <c r="BB20" s="55"/>
+      <c r="BC20" s="55"/>
+      <c r="BD20" s="55"/>
+      <c r="BE20" s="55"/>
+      <c r="BF20" s="55"/>
+      <c r="BG20" s="55"/>
+      <c r="BH20" s="55"/>
+      <c r="BI20" s="55"/>
+      <c r="BJ20" s="55"/>
+      <c r="BK20" s="55"/>
+      <c r="BL20" s="55"/>
+      <c r="BM20" s="55"/>
+      <c r="BN20" s="55"/>
+      <c r="BO20" s="55"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1">
       <c r="B21" s="18" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="C21" s="19">
         <v>9</v>
@@ -5817,72 +5709,72 @@
         <v>7</v>
       </c>
       <c r="G21" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
-      <c r="BC21" s="65"/>
-      <c r="BD21" s="65"/>
-      <c r="BE21" s="65"/>
-      <c r="BF21" s="65"/>
-      <c r="BG21" s="65"/>
-      <c r="BH21" s="65"/>
-      <c r="BI21" s="65"/>
-      <c r="BJ21" s="65"/>
-      <c r="BK21" s="65"/>
-      <c r="BL21" s="65"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="65"/>
-      <c r="BO21" s="65"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="55"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
+      <c r="BC21" s="55"/>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="55"/>
+      <c r="BF21" s="55"/>
+      <c r="BG21" s="55"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="55"/>
+      <c r="BJ21" s="55"/>
+      <c r="BK21" s="55"/>
+      <c r="BL21" s="55"/>
+      <c r="BM21" s="55"/>
+      <c r="BN21" s="55"/>
+      <c r="BO21" s="55"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1">
       <c r="B22" s="18" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C22" s="19">
         <v>10</v>
@@ -5897,72 +5789,72 @@
         <v>6</v>
       </c>
       <c r="G22" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="65"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="65"/>
-      <c r="BA22" s="65"/>
-      <c r="BB22" s="65"/>
-      <c r="BC22" s="65"/>
-      <c r="BD22" s="65"/>
-      <c r="BE22" s="65"/>
-      <c r="BF22" s="65"/>
-      <c r="BG22" s="65"/>
-      <c r="BH22" s="65"/>
-      <c r="BI22" s="65"/>
-      <c r="BJ22" s="65"/>
-      <c r="BK22" s="65"/>
-      <c r="BL22" s="65"/>
-      <c r="BM22" s="65"/>
-      <c r="BN22" s="65"/>
-      <c r="BO22" s="65"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="55"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="55"/>
+      <c r="AW22" s="55"/>
+      <c r="AX22" s="55"/>
+      <c r="AY22" s="55"/>
+      <c r="AZ22" s="55"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="55"/>
+      <c r="BF22" s="55"/>
+      <c r="BG22" s="55"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="55"/>
+      <c r="BJ22" s="55"/>
+      <c r="BK22" s="55"/>
+      <c r="BL22" s="55"/>
+      <c r="BM22" s="55"/>
+      <c r="BN22" s="55"/>
+      <c r="BO22" s="55"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1">
       <c r="B23" s="18" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="C23" s="19">
         <v>13</v>
@@ -5977,72 +5869,72 @@
         <v>4</v>
       </c>
       <c r="G23" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="65"/>
-      <c r="AW23" s="65"/>
-      <c r="AX23" s="65"/>
-      <c r="AY23" s="65"/>
-      <c r="AZ23" s="65"/>
-      <c r="BA23" s="65"/>
-      <c r="BB23" s="65"/>
-      <c r="BC23" s="65"/>
-      <c r="BD23" s="65"/>
-      <c r="BE23" s="65"/>
-      <c r="BF23" s="65"/>
-      <c r="BG23" s="65"/>
-      <c r="BH23" s="65"/>
-      <c r="BI23" s="65"/>
-      <c r="BJ23" s="65"/>
-      <c r="BK23" s="65"/>
-      <c r="BL23" s="65"/>
-      <c r="BM23" s="65"/>
-      <c r="BN23" s="65"/>
-      <c r="BO23" s="65"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="55"/>
+      <c r="AQ23" s="55"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="55"/>
+      <c r="BC23" s="55"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="55"/>
+      <c r="BF23" s="55"/>
+      <c r="BG23" s="55"/>
+      <c r="BH23" s="55"/>
+      <c r="BI23" s="55"/>
+      <c r="BJ23" s="55"/>
+      <c r="BK23" s="55"/>
+      <c r="BL23" s="55"/>
+      <c r="BM23" s="55"/>
+      <c r="BN23" s="55"/>
+      <c r="BO23" s="55"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1">
       <c r="B24" s="18" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="C24" s="19">
         <v>14</v>
@@ -6059,84 +5951,164 @@
       <c r="G24" s="20">
         <v>1</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="65"/>
-      <c r="AY24" s="65"/>
-      <c r="AZ24" s="65"/>
-      <c r="BA24" s="65"/>
-      <c r="BB24" s="65"/>
-      <c r="BC24" s="65"/>
-      <c r="BD24" s="65"/>
-      <c r="BE24" s="65"/>
-      <c r="BF24" s="65"/>
-      <c r="BG24" s="65"/>
-      <c r="BH24" s="65"/>
-      <c r="BI24" s="65"/>
-      <c r="BJ24" s="65"/>
-      <c r="BK24" s="65"/>
-      <c r="BL24" s="65"/>
-      <c r="BM24" s="65"/>
-      <c r="BN24" s="65"/>
-      <c r="BO24" s="65"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="55"/>
+      <c r="BC24" s="55"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="55"/>
+      <c r="BF24" s="55"/>
+      <c r="BG24" s="55"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="55"/>
+      <c r="BJ24" s="55"/>
+      <c r="BK24" s="55"/>
+      <c r="BL24" s="55"/>
+      <c r="BM24" s="55"/>
+      <c r="BN24" s="55"/>
+      <c r="BO24" s="55"/>
+    </row>
+    <row r="25" spans="2:67" ht="30" customHeight="1">
+      <c r="B25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="19">
+        <v>16</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19">
+        <v>16</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="56"/>
+      <c r="BD25" s="56"/>
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="56"/>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
+      <c r="BK25" s="56"/>
+      <c r="BL25" s="56"/>
+      <c r="BM25" s="56"/>
+      <c r="BN25" s="56"/>
+      <c r="BO25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="H5:BO24">
+  <conditionalFormatting sqref="H5:BO25">
     <cfRule type="expression" dxfId="9" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -6162,7 +6134,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:BO25">
+  <conditionalFormatting sqref="B26:BO26">
     <cfRule type="expression" dxfId="1" priority="26">
       <formula>TRUE</formula>
     </cfRule>
